--- a/notes/Shortcuts快捷键整理.xlsx
+++ b/notes/Shortcuts快捷键整理.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66CAE21-B493-48AA-A31B-35D4A0B873AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1DCBED-A1F3-4458-A554-D23B94D50171}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="windows" sheetId="1" r:id="rId1"/>
+    <sheet name="others" sheetId="2" r:id="rId2"/>
+    <sheet name="visual studio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="228">
   <si>
     <t>快捷键</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粘贴选择的纯文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ctrl+T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,6 +632,415 @@
   </si>
   <si>
     <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充用户名+密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅填充密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chromeIPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift +Alt+ P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift +Alt+ o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加记录窗口中标题和网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeePass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt+ U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt+ K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局自动输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示KeePass主程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual studio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用智能提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt+→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J像下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl + K + F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">匹配大括号、括号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+ U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTRL + SHIFT + U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速隐藏或显示当前代码段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+M,M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>粘贴选择的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置或删除断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将当前行添加书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">导航至下一个书签 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">导航至前一个书签 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加到进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加快捷匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正命名空间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在(选择项)范围中查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在当前行插入空行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在当前行下方插入空行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除光标右侧的一个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl +Up/Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">滚动窗口但不移动光标 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强迫显示参数信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从(光标)到尾选择整行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从(光标)到头选择整行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift + End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift + Home</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + 空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">跳转到行号或行 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Shift +箭头键(←,↑,↓,→)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框式选择允许你同时对代码行和列进行选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">正确对齐所有代码(代码格式化) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释选定行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消选定行的注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + K Ctrl + U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制一整行代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切一整行代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除一整行代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入片段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入外侧代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+K Ctrl +X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+K Ctrl +S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift +]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配大括号、括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在匹配的括号、括号内选择文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">保存所有文件和项目 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+Ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活启动器模式</t>
+  </si>
+  <si>
+    <t>Alt + P</t>
+  </si>
+  <si>
+    <t>预览</t>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右方向键</t>
+  </si>
+  <si>
+    <t>进入动作菜单</t>
+  </si>
+  <si>
+    <t>Listary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +1048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,8 +1091,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +1109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,11 +1131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -999,9 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1367,308 +1788,312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F059977-3FDA-4FE9-AC37-9D59207DCAEB}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>67</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>69</v>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
       </c>
       <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>129</v>
@@ -1676,13 +2101,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>128</v>
@@ -1690,16 +2115,474 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16B018B-A64F-487E-9F6C-E2472305690C}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
